--- a/Data/WeaponData.xlsx
+++ b/Data/WeaponData.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5676"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WeaponData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -80,6 +80,66 @@
   </si>
   <si>
     <t>銀の剣</t>
+  </si>
+  <si>
+    <t>鉄の槍</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼の槍</t>
+    <rPh sb="0" eb="1">
+      <t>ハガネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀の槍</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の弓</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼の弓</t>
+    <rPh sb="0" eb="1">
+      <t>ハガネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀の弓</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -467,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -561,6 +621,126 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>80</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1">
+        <v>80</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>85</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
